--- a/src/main/resources/Banks.xlsx
+++ b/src/main/resources/Banks.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valia\git\bg\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="1830" tabRatio="951"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11316" windowHeight="1836" tabRatio="765"/>
   </bookViews>
   <sheets>
     <sheet name="Обобщен" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +52,6 @@
     <t>First Investment Bank</t>
   </si>
   <si>
-    <t>http://fibank.bg/bg/valutni-kursove/page/461</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -69,21 +61,6 @@
     <t>Central Cooperative Bank</t>
   </si>
   <si>
-    <t>http://www.ccbank.bg/bg/valutni-kursove/</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>СИБанк</t>
-  </si>
-  <si>
-    <t>CIBank</t>
-  </si>
-  <si>
-    <t>https://www.cibank.bg/bg/currency</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -93,9 +70,6 @@
     <t>ProCredit Bank</t>
   </si>
   <si>
-    <t>http://www.procreditbank.bg/bg/page/205/</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -108,30 +82,15 @@
     <t>Raiffeisenbank</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Алианц Банк</t>
   </si>
   <si>
     <t>Allianz Bank</t>
   </si>
   <si>
-    <t>https://www.allianz.bg/currency_rates/</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>Сосиете Женерал Експресбанк</t>
-  </si>
-  <si>
-    <t>Societe Generale Expressbank</t>
-  </si>
-  <si>
-    <t>http://www.sgeb.bg/bg/byrzi-vryzki/valutni-kursove.html</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -141,9 +100,6 @@
     <t>United Bulgarian Bank</t>
   </si>
   <si>
-    <t>https://www.ubb.bg/bul/exchange_rates</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -153,9 +109,6 @@
     <t>Tavex</t>
   </si>
   <si>
-    <t>http://www.tavex.bg/?main=24</t>
-  </si>
-  <si>
     <t>change</t>
   </si>
   <si>
@@ -168,9 +121,6 @@
     <t>Varchev exchange</t>
   </si>
   <si>
-    <t>http://exchange.varchev.com/index.php?request=index&amp;subquest=rates_sofia</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -183,9 +133,6 @@
     <t>http://www.changepartner.net/valuta.aspx</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Краун чейндж - обменни бюра - София</t>
   </si>
   <si>
@@ -204,21 +151,9 @@
     <t>Polana 1 Change</t>
   </si>
   <si>
-    <t>http://polana1.com</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>Форекс  чейндж</t>
-  </si>
-  <si>
-    <t>Forex House</t>
-  </si>
-  <si>
-    <t>http://forexhouse.eu/</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -228,9 +163,6 @@
     <t>TBI Bank</t>
   </si>
   <si>
-    <t>https://www.tbibank.bg/bg/%D0%B7%D0%B0-tbi-bank/%D0%BA%D0%BE%D0%BD%D1%82%D0%B0%D0%BA%D1%82%D0%B8/%D0%BA%D0%B0%D1%80%D1%82%D0%B0-%D0%BD%D0%B0-%D0%BE%D1%84%D0%B8%D1%81%D0%B8%D1%82%D0%B5-%D0%BD%D0%B8/</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -243,27 +175,18 @@
     <t>Texim Bank</t>
   </si>
   <si>
-    <t>http://www.teximbank.bg/all/</t>
-  </si>
-  <si>
     <t>Българо-американска кредитна банка</t>
   </si>
   <si>
     <t>Bulgarian-American Credit bank (BACB)</t>
   </si>
   <si>
-    <t>https://ib.bacb.bg/public/ExchangeRates.aspx</t>
-  </si>
-  <si>
     <t>Фактор И.Н.</t>
   </si>
   <si>
     <t>Factor I.N.</t>
   </si>
   <si>
-    <t>http://factorin.bg/bg/clients/currency/</t>
-  </si>
-  <si>
     <t>Токуда Банк</t>
   </si>
   <si>
@@ -294,23 +217,59 @@
     <t>DSK Bank</t>
   </si>
   <si>
-    <t>https://dskbank.bg/Page/default.aspx?xml_id=/bg-BG/.currency</t>
-  </si>
-  <si>
-    <t>Банка Пиреос</t>
-  </si>
-  <si>
-    <t>Piraeus Bank</t>
-  </si>
-  <si>
-    <t>http://www.piraeusbank.bg/pricing-policy.html</t>
+    <t>https://tavex.bg/obmen-na-valuta/</t>
+  </si>
+  <si>
+    <t>https://www.varchev.com/exchange-home.htm</t>
+  </si>
+  <si>
+    <t>https://fibank.bg/bg/valutni-kursove</t>
+  </si>
+  <si>
+    <t>https://www.procreditbank.bg/bg/valutni-kursove</t>
+  </si>
+  <si>
+    <t>https://remote.bank.allianz.bg/EBank/html/exrates.html</t>
+  </si>
+  <si>
+    <t>https://dskbank.bg/%D0%B2%D0%B0%D0%BB%D1%83%D1%82%D0%BD%D0%B0-%D0%B8%D0%BD%D1%84%D0%BE%D1%80%D0%BC%D0%B0%D1%86%D0%B8%D1%8F</t>
+  </si>
+  <si>
+    <t>https://www.postbank.bg/Valutni-Kursove</t>
+  </si>
+  <si>
+    <t>Post Bank</t>
+  </si>
+  <si>
+    <t>Пощенска банка</t>
+  </si>
+  <si>
+    <t>https://tbibank.bg/valutni-kursove</t>
+  </si>
+  <si>
+    <t>https://www.ccbank.bg/bg/valutni-kursove</t>
+  </si>
+  <si>
+    <t>https://www.ubb.bg/business-clients/pazari-i-investitzionno-bankirane/valutna-targoviya</t>
+  </si>
+  <si>
+    <t>https://polana1.com/bg/%D0%BE%D0%B1%D0%BC%D1%8F%D0%BD%D0%B0-%D0%BD%D0%B0-%D0%B2%D0%B0%D0%BB%D1%83%D1%82%D0%B0</t>
+  </si>
+  <si>
+    <t>https://www.bacb.bg/bg/produkti/biznes-klienti/kasovi-operacii</t>
+  </si>
+  <si>
+    <t>https://factorin.bg/bg/currency-exchange/currency/</t>
+  </si>
+  <si>
+    <t>https://www.teximbank.bg/phy/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,12 +285,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Ubuntu"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A00FF"/>
       <name val="Ubuntu"/>
       <charset val="1"/>
     </font>
@@ -378,15 +331,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,27 +680,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1"/>
-    <col min="2" max="3" width="42.85546875" style="1"/>
-    <col min="4" max="4" width="94.7109375" style="1"/>
-    <col min="5" max="5" width="28.28515625" style="1"/>
-    <col min="6" max="1025" width="8.5703125" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1"/>
+    <col min="2" max="3" width="42.88671875" style="1"/>
+    <col min="4" max="4" width="94.6640625" style="1"/>
+    <col min="5" max="5" width="28.33203125" style="1"/>
+    <col min="6" max="1025" width="8.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -778,8 +730,8 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -795,8 +747,8 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -804,16 +756,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -821,16 +773,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -838,16 +790,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -855,16 +807,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -872,16 +824,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -889,169 +841,169 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>65</v>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>8</v>
@@ -1059,16 +1011,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>77</v>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
@@ -1076,90 +1028,44 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
-    <hyperlink ref="D17" r:id="rId6"/>
-    <hyperlink ref="D18" r:id="rId7"/>
-    <hyperlink ref="D19" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
+    <hyperlink ref="D14" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId7"/>
+    <hyperlink ref="D16" r:id="rId8"/>
+    <hyperlink ref="D17" r:id="rId9"/>
+    <hyperlink ref="D18" r:id="rId10"/>
+    <hyperlink ref="D6" r:id="rId11"/>
     <hyperlink ref="D2" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId13"/>
+    <hyperlink ref="D9" r:id="rId14"/>
+    <hyperlink ref="D10" r:id="rId15"/>
+    <hyperlink ref="D3" r:id="rId16"/>
+    <hyperlink ref="D4" r:id="rId17"/>
+    <hyperlink ref="D5" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>